--- a/DB1.xlsx
+++ b/DB1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nemanj Gligorijevic Ilic/Desktop/AddressChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E084A1-74E5-1F47-AD90-3B67CC0EAF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCE31C-06BD-DC4C-B57E-306C6F278FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44300" yWindow="660" windowWidth="22880" windowHeight="20940" xr2:uid="{B01F121D-BA27-2A4D-93E8-E9B2EE8AEE44}"/>
   </bookViews>
@@ -36,449 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="557">
   <si>
     <t>Lastname and Firstname</t>
   </si>
   <si>
-    <t>Miloradovic Milan</t>
-  </si>
-  <si>
-    <t>Miloradovic Milanka</t>
-  </si>
-  <si>
-    <t>Milosavljevic Miodrag</t>
-  </si>
-  <si>
-    <t>Milosavljevic Nadezda</t>
-  </si>
-  <si>
-    <t>Milosavljevic Milenka</t>
-  </si>
-  <si>
-    <t>Milosavljevic Aleksandar</t>
-  </si>
-  <si>
-    <t>Milosevic Stojan</t>
-  </si>
-  <si>
-    <t>Milosevic Milan</t>
-  </si>
-  <si>
-    <t>Milosevic Dragan</t>
-  </si>
-  <si>
-    <t>Milosevic Vidan</t>
-  </si>
-  <si>
-    <t>Milosevic Sasa</t>
-  </si>
-  <si>
-    <t>Milovanovic Oliver</t>
-  </si>
-  <si>
-    <t>Milovanovic Branko</t>
-  </si>
-  <si>
-    <t>Milovanovic Milorad</t>
-  </si>
-  <si>
-    <t>Milovanovic Milan</t>
-  </si>
-  <si>
-    <t>Milovanovic Sasa</t>
-  </si>
-  <si>
-    <t>Milovanovic Malina</t>
-  </si>
-  <si>
-    <t>Milovic Radenko</t>
-  </si>
-  <si>
-    <t>Milunovic Branka</t>
-  </si>
-  <si>
-    <t>Milunovic Milosav</t>
-  </si>
-  <si>
-    <t>Milutinovic Dragana</t>
-  </si>
-  <si>
-    <t>Milutinovic Nada</t>
-  </si>
-  <si>
-    <t>Milutinovic Seki</t>
-  </si>
-  <si>
-    <t>Milutinovic Svetomir</t>
-  </si>
-  <si>
-    <t>Minic Dragan</t>
-  </si>
-  <si>
-    <t>Minic Milojko</t>
-  </si>
-  <si>
-    <t>Minovic Milena</t>
-  </si>
-  <si>
-    <t>Mirkov Gordana</t>
-  </si>
-  <si>
-    <t>Mirkovic Vojislav</t>
-  </si>
-  <si>
-    <t>Misic Dragica</t>
-  </si>
-  <si>
-    <t>Misic Slavoljub</t>
-  </si>
-  <si>
-    <t>Miskovic Radojica</t>
-  </si>
-  <si>
-    <t>Miskovic Goran</t>
-  </si>
-  <si>
-    <t>Miskovic Ljubisa</t>
-  </si>
-  <si>
-    <t>Miskovic Radoje</t>
-  </si>
-  <si>
-    <t>Miteski Danijel</t>
-  </si>
-  <si>
-    <t>Mitic Rajko</t>
-  </si>
-  <si>
-    <t>Mitic Zoran</t>
-  </si>
-  <si>
-    <t>Mitrovic Djurdjija</t>
-  </si>
-  <si>
-    <t>Mitrovic Mico</t>
-  </si>
-  <si>
-    <t>Mitrovic Katarina</t>
-  </si>
-  <si>
-    <t>Mitrovic Goran</t>
-  </si>
-  <si>
-    <t>Mitrovic Zivojin</t>
-  </si>
-  <si>
-    <t>Mitrovic Stojanka</t>
-  </si>
-  <si>
-    <t>Mitrovic Verko</t>
-  </si>
-  <si>
-    <t>Mitrovic Miroslav</t>
-  </si>
-  <si>
-    <t>Mitrovic Vlado</t>
-  </si>
-  <si>
-    <t>Mitrovic Nenad</t>
-  </si>
-  <si>
-    <t>Mitrovic Slobodanka</t>
-  </si>
-  <si>
-    <t>Mitrovic Ruzica</t>
-  </si>
-  <si>
-    <t>Mitrovic Dejan</t>
-  </si>
-  <si>
-    <t>Mitrovic Jovan</t>
-  </si>
-  <si>
-    <t>Mitrovic Zoran</t>
-  </si>
-  <si>
-    <t>Mladenic Milorad</t>
-  </si>
-  <si>
-    <t>Mladenovic Jelena</t>
-  </si>
-  <si>
-    <t>Mladenovic Zivodar</t>
-  </si>
-  <si>
-    <t>Mladenovic Mirjana</t>
-  </si>
-  <si>
-    <t>Mladenovic Jovan</t>
-  </si>
-  <si>
-    <t>Mladenovic Milena</t>
-  </si>
-  <si>
-    <t>Mladenovic Radomir</t>
-  </si>
-  <si>
-    <t>Mocic Bjelosevic Sladjan</t>
-  </si>
-  <si>
-    <t>Mokelajnen Ljubica</t>
-  </si>
-  <si>
-    <t>Morovic Milan</t>
-  </si>
-  <si>
-    <t>Morovic Danijel</t>
-  </si>
-  <si>
-    <t>Morovic Dragan</t>
-  </si>
-  <si>
-    <t>Morovic Gruja</t>
-  </si>
-  <si>
-    <t>Mostarica Nevenka</t>
-  </si>
-  <si>
-    <t>Mostarica Slavica</t>
-  </si>
-  <si>
-    <t>Mrkaic Ratko</t>
-  </si>
-  <si>
-    <t>Mrkalj Milos</t>
-  </si>
-  <si>
-    <t>Mugosa Snezana</t>
-  </si>
-  <si>
-    <t>Myrrestedt Milena</t>
-  </si>
-  <si>
-    <t>Najdanovic Vladica</t>
-  </si>
-  <si>
-    <t>Neducin Cveta</t>
-  </si>
-  <si>
-    <t>Nesic Milka</t>
-  </si>
-  <si>
-    <t>Nesic Radomir</t>
-  </si>
-  <si>
-    <t>Nika Simeon</t>
-  </si>
-  <si>
-    <t>Nikic Boro</t>
-  </si>
-  <si>
-    <t>Nikic-Stevanovic Savo</t>
-  </si>
-  <si>
-    <t>Nikolic Goran</t>
-  </si>
-  <si>
-    <t>Nikolic Nenad</t>
-  </si>
-  <si>
-    <t>Nikolic Slobodan</t>
-  </si>
-  <si>
-    <t>Nikolic Dejan</t>
-  </si>
-  <si>
-    <t>Nikolic Natasa</t>
-  </si>
-  <si>
-    <t>Nikolic Smilja</t>
-  </si>
-  <si>
-    <t>Nikolic Zlatomir</t>
-  </si>
-  <si>
-    <t>Nikolic Luka</t>
-  </si>
-  <si>
-    <t>Nikolic Janjic Dragana</t>
-  </si>
-  <si>
-    <t>Nikolits Ivana</t>
-  </si>
-  <si>
-    <t>Novakov Dorencel Milena</t>
-  </si>
-  <si>
-    <t>Novakovic Dusan</t>
-  </si>
-  <si>
-    <t>Novakovic Goran</t>
-  </si>
-  <si>
-    <t>Novakovic Nada</t>
-  </si>
-  <si>
-    <t>Novicic Nenad</t>
-  </si>
-  <si>
-    <t>Novkovic Nenad</t>
-  </si>
-  <si>
-    <t>Obradovic Vesna</t>
-  </si>
-  <si>
-    <t>Obradovic Slobodanka</t>
-  </si>
-  <si>
-    <t>Obradovic Milojko</t>
-  </si>
-  <si>
-    <t>Olsson Vesna</t>
-  </si>
-  <si>
-    <t>Olujic Tanja</t>
-  </si>
-  <si>
-    <t>Opsitarevic Dusan</t>
-  </si>
-  <si>
-    <t>Orlova Tatiana</t>
-  </si>
-  <si>
-    <t>Palangetic Mile</t>
-  </si>
-  <si>
-    <t>Panic Milovan</t>
-  </si>
-  <si>
-    <t>Panic Milorad</t>
-  </si>
-  <si>
-    <t>Panic Stevo</t>
-  </si>
-  <si>
-    <t>Panic Gojko</t>
-  </si>
-  <si>
-    <t>Pantic Goran</t>
-  </si>
-  <si>
-    <t>Pantic Zoran</t>
-  </si>
-  <si>
-    <t>Pasic Aleksandar</t>
-  </si>
-  <si>
-    <t>Pasic Nikola</t>
-  </si>
-  <si>
-    <t>Paspalj Zorka</t>
-  </si>
-  <si>
-    <t>Paunovic Darko</t>
-  </si>
-  <si>
-    <t>Pavlovic Nenad</t>
-  </si>
-  <si>
-    <t>Pavlovic Suzana</t>
-  </si>
-  <si>
-    <t>Pavlovic Rodzer</t>
-  </si>
-  <si>
-    <t>Pavlovic Goran</t>
-  </si>
-  <si>
-    <t>Pavlovic Momcilo</t>
-  </si>
-  <si>
-    <t>Pavlovic Zeljko</t>
-  </si>
-  <si>
-    <t>Pecaranin Dragan</t>
-  </si>
-  <si>
-    <t>Peric Dragan</t>
-  </si>
-  <si>
-    <t>Peric Stanojka</t>
-  </si>
-  <si>
-    <t>Peric Dusan</t>
-  </si>
-  <si>
-    <t>Perisic Ljubomir</t>
-  </si>
-  <si>
-    <t>Perisic Vojin</t>
-  </si>
-  <si>
-    <t>Perisic Makso</t>
-  </si>
-  <si>
-    <t>Petkovic Svetozar</t>
-  </si>
-  <si>
-    <t>Petkovic Svetislav</t>
-  </si>
-  <si>
-    <t>Petkovic Slavoljub</t>
-  </si>
-  <si>
-    <t>Petkovic Denis</t>
-  </si>
-  <si>
-    <t>Petkovic Natalija</t>
-  </si>
-  <si>
-    <t>Petrovic Branko</t>
-  </si>
-  <si>
-    <t>Petrovic Branka</t>
-  </si>
-  <si>
-    <t>Petrovic Dragan</t>
-  </si>
-  <si>
-    <t>Petrovic Dragomir</t>
-  </si>
-  <si>
-    <t>Petrovic Mladen</t>
-  </si>
-  <si>
-    <t>Petrovic Ivan</t>
-  </si>
-  <si>
-    <t>Petrovic Zoran</t>
-  </si>
-  <si>
-    <t>Petrovic Dobrila</t>
-  </si>
-  <si>
-    <t>Petrovic Radomir</t>
-  </si>
-  <si>
-    <t>Petrovic Aleksandar</t>
-  </si>
-  <si>
-    <t>Petrovic Vesna</t>
-  </si>
-  <si>
-    <t>Petrovic Tanasije</t>
-  </si>
-  <si>
-    <t>Petrovic George</t>
-  </si>
-  <si>
-    <t>Petrovic Miodrag</t>
-  </si>
-  <si>
-    <t>Petrovic Milovan</t>
-  </si>
-  <si>
     <t>Petrovic Nenad</t>
   </si>
   <si>
@@ -1322,458 +884,10 @@
     <t>Ormvråksg.4</t>
   </si>
   <si>
-    <t>Kulladalsg. 4 A</t>
-  </si>
-  <si>
-    <t>Kulladalsg. 26 A</t>
-  </si>
-  <si>
     <t>von Lingens väg 42</t>
   </si>
   <si>
-    <t>Kulladalsg.30c</t>
-  </si>
-  <si>
-    <t>Segevångsg. 17 B</t>
-  </si>
-  <si>
-    <t>Balladgatan 37 lgh 1003</t>
-  </si>
-  <si>
-    <t>Kastanjeg. 17 E</t>
-  </si>
-  <si>
-    <t>N. Grängesbergsg. 42 B</t>
-  </si>
-  <si>
-    <t>Bures gata 20 lgh 1001</t>
-  </si>
-  <si>
-    <t>Konsultg. 16</t>
-  </si>
-  <si>
-    <t>Erikslustv. 36 c lgh 1203</t>
-  </si>
-  <si>
-    <t>Segevångsg. 17 A</t>
-  </si>
-  <si>
-    <t>Tegelbruksv. 187</t>
-  </si>
-  <si>
-    <t>Kulladalsg. 30 B</t>
-  </si>
-  <si>
-    <t>Ishockeygränd 2</t>
-  </si>
-  <si>
-    <t>Amiralsgatan 89 D lgh 1202</t>
-  </si>
-  <si>
-    <t>Linneg. 62</t>
-  </si>
-  <si>
-    <t>Harjagersvägen 5</t>
-  </si>
-  <si>
-    <t>Ådalavägen 19</t>
-  </si>
-  <si>
-    <t>Rapsv. 137</t>
-  </si>
-  <si>
-    <t>Bang.1 A</t>
-  </si>
-  <si>
-    <t>Branteviksg. 5 B</t>
-  </si>
-  <si>
-    <t>Sufflörg. 13</t>
-  </si>
-  <si>
-    <t>Ringkragev.33</t>
-  </si>
-  <si>
-    <t>Osbyg. 1</t>
-  </si>
-  <si>
-    <t>Östra Hylliev. 115</t>
-  </si>
-  <si>
-    <t>Kronetorpag. 54 B</t>
-  </si>
-  <si>
-    <t>S. Gulsparvsg. 29 C</t>
-  </si>
-  <si>
-    <t>Tegelv.44</t>
-  </si>
-  <si>
-    <t>Eriksfältsg. 59 C vån 2</t>
-  </si>
-  <si>
-    <t>Rönnblomsgatan 4 B lgh 1202</t>
-  </si>
-  <si>
-    <t>V. Skrävlingev. 142</t>
-  </si>
-  <si>
-    <t>Ehrensvärdsgatan 24 lgh 1201</t>
-  </si>
-  <si>
-    <t>Engelbrektsg. 77</t>
-  </si>
-  <si>
-    <t>Vårbog. 15 C</t>
-  </si>
-  <si>
-    <t>Blankebäcksg. 19</t>
-  </si>
-  <si>
-    <t>Plommongatan 2</t>
-  </si>
-  <si>
-    <t>Musketörgatan 7 B lgh 1204</t>
-  </si>
-  <si>
-    <t>Bjällhögsg. 3</t>
-  </si>
-  <si>
-    <t>Guldbaggegatan 52</t>
-  </si>
-  <si>
-    <t>Berguvsg. 3 E</t>
-  </si>
-  <si>
-    <t>Kronetorpsg.42b</t>
-  </si>
-  <si>
-    <t>Landålettg.32</t>
-  </si>
-  <si>
-    <t>Hallingsg. 6 A</t>
-  </si>
-  <si>
-    <t>Eriksdalsgatan 3 B lgh 1101</t>
-  </si>
-  <si>
-    <t>c/o Attendo Äldreboende
-Västra Varvsgatan 50</t>
-  </si>
-  <si>
-    <t>Spånehusv. 93 A</t>
-  </si>
-  <si>
-    <t>Segevångsgatan 7 B lgh 1003</t>
-  </si>
-  <si>
-    <t>Kamrerg. 3</t>
-  </si>
-  <si>
-    <t>Bäcklundag. 1</t>
-  </si>
-  <si>
-    <t>von Lingens väg 38</t>
-  </si>
-  <si>
-    <t>Barometerg.82</t>
-  </si>
-  <si>
-    <t>Roderg.8b</t>
-  </si>
-  <si>
-    <t>Diagnosv. 9d lgh 1703</t>
-  </si>
-  <si>
-    <t>Landålettg. 32</t>
-  </si>
-  <si>
-    <t>Producentgatan 11 lgh 1402</t>
-  </si>
-  <si>
-    <t>Elisetorpsvägen 19C 1402</t>
-  </si>
-  <si>
-    <t>Segemölleg. 75</t>
-  </si>
-  <si>
-    <t>Serenadgatan 55 lgh 1003</t>
-  </si>
-  <si>
-    <t>Spång.16a</t>
-  </si>
-  <si>
-    <t>Lektorsgången  5 A lgh 303</t>
-  </si>
-  <si>
-    <t>Bullerbygatan 109 lgh 1001</t>
-  </si>
-  <si>
-    <t>Norra Bulltoftavägen 71 B</t>
-  </si>
-  <si>
-    <t>Kulladalsg. 10 A</t>
-  </si>
-  <si>
-    <t>Tvättmästarev. 23</t>
-  </si>
-  <si>
-    <t>Vårmätaregatan 10</t>
-  </si>
-  <si>
-    <t>Kornv.47</t>
-  </si>
-  <si>
-    <t>Bangatan 5 C</t>
-  </si>
-  <si>
-    <t>Bangatan 9c</t>
-  </si>
-  <si>
-    <t>Västra Rönneholmsvägen 68 lgh 1202</t>
-  </si>
-  <si>
-    <t>Kulladalsgatan 10 B lgh 1601</t>
-  </si>
-  <si>
-    <t>Häradsv.40</t>
-  </si>
-  <si>
-    <t>Stadiongatan 57 G lgh 1201</t>
-  </si>
-  <si>
-    <t>Axel Danielssons väg 426</t>
-  </si>
-  <si>
-    <t>Posteljonsg. 6</t>
-  </si>
-  <si>
-    <t>Berguvsgatan 20 D</t>
-  </si>
-  <si>
-    <t>Kronetorpsg. 72 B</t>
-  </si>
-  <si>
-    <t>Hermansgatan 5 lgh 1302</t>
-  </si>
-  <si>
-    <t>Koristg. 20</t>
-  </si>
-  <si>
-    <t>Serenadgatan 53 lgh 1701</t>
-  </si>
-  <si>
-    <t>Grenv. 4</t>
-  </si>
-  <si>
-    <t>Fänkålsvägen 76</t>
-  </si>
-  <si>
-    <t>Annebergsg.12b</t>
-  </si>
-  <si>
-    <t>Docentg. 4 C</t>
-  </si>
-  <si>
-    <t>Zenithgatan 36 lgh 1602</t>
-  </si>
-  <si>
-    <t>Sörbäcksg. 31</t>
-  </si>
-  <si>
-    <t>Vävstolsv. 4 A</t>
-  </si>
-  <si>
-    <t>Gymnasistgatan 11 A</t>
-  </si>
-  <si>
-    <t>Klörupsvägen 31 D lgh 1201</t>
-  </si>
-  <si>
     <t>Östgatan 1</t>
-  </si>
-  <si>
-    <t>Granviksg. 73</t>
-  </si>
-  <si>
-    <t>Dansbanegatan 7</t>
-  </si>
-  <si>
-    <t>Högatorpsv. 35</t>
-  </si>
-  <si>
-    <t>Köpenhamnsv.2</t>
-  </si>
-  <si>
-    <t>Rödkullastigen 1a lgh 1305</t>
-  </si>
-  <si>
-    <t>Hällasvängen 9 A</t>
-  </si>
-  <si>
-    <t>Serenadg. 23</t>
-  </si>
-  <si>
-    <t>St: Hansgränd 23 A - 111 Nb</t>
-  </si>
-  <si>
-    <t>Tordönsv. 4 H</t>
-  </si>
-  <si>
-    <t>Hyllievångsv. 9</t>
-  </si>
-  <si>
-    <t>Lundav.55a</t>
-  </si>
-  <si>
-    <t>Norrbäcksgatan 11</t>
-  </si>
-  <si>
-    <t>Apelrydsg. 7</t>
-  </si>
-  <si>
-    <t>Justinsg. 18</t>
-  </si>
-  <si>
-    <t>Solkurvan 30</t>
-  </si>
-  <si>
-    <t>Arhitektg.33</t>
-  </si>
-  <si>
-    <t>Per Albin Hanssons väg 50A</t>
-  </si>
-  <si>
-    <t>Sörbäcksg. 35</t>
-  </si>
-  <si>
-    <t>Hyacintgatan 25 lgh 1001</t>
-  </si>
-  <si>
-    <t>Allansgatan 21</t>
-  </si>
-  <si>
-    <t>Lönnebergagatan 1a</t>
-  </si>
-  <si>
-    <t>Videv. 59</t>
-  </si>
-  <si>
-    <t>Rudeboksv.94</t>
-  </si>
-  <si>
-    <t>Sorgenfriv. 31</t>
-  </si>
-  <si>
-    <t>Arkitektg.41</t>
-  </si>
-  <si>
-    <t>Kometg. 5</t>
-  </si>
-  <si>
-    <t>Abbedissg. 8</t>
-  </si>
-  <si>
-    <t>Galgabacken 1</t>
-  </si>
-  <si>
-    <t>Dikesvägen 2</t>
-  </si>
-  <si>
-    <t>Konsultgatan 2 lgh 1302</t>
-  </si>
-  <si>
-    <t>Bäcklundagatan 6</t>
-  </si>
-  <si>
-    <t>S:t Jakobs väg 12</t>
-  </si>
-  <si>
-    <t>Grang. 2</t>
-  </si>
-  <si>
-    <t>Asterv.28</t>
-  </si>
-  <si>
-    <t>Elisetorpsv.11b</t>
-  </si>
-  <si>
-    <t>von Lingens väg 13</t>
-  </si>
-  <si>
-    <t>Kulladalsg.8c</t>
-  </si>
-  <si>
-    <t>Grönvägen 2 F</t>
-  </si>
-  <si>
-    <t>Vågmästarev.24</t>
-  </si>
-  <si>
-    <t>Kasalag. 49</t>
-  </si>
-  <si>
-    <t>Munkhättegatan 36 C lgh 1102</t>
-  </si>
-  <si>
-    <t>Poppelg. 57</t>
-  </si>
-  <si>
-    <t>Sjöblads väg 9 lgh 1003</t>
-  </si>
-  <si>
-    <t>Vitemölleg. 15 F</t>
-  </si>
-  <si>
-    <t>Ramels väg 75 lgh 1502</t>
-  </si>
-  <si>
-    <t>Ringg.13</t>
-  </si>
-  <si>
-    <t>Stora Kvarngatan 26 lgh 1403</t>
-  </si>
-  <si>
-    <t>Cronmans väg 5 A lgh 1101</t>
-  </si>
-  <si>
-    <t>Albinsrog. 5 B</t>
-  </si>
-  <si>
-    <t>Rådshällag. 6</t>
-  </si>
-  <si>
-    <t>Råtegelvägen 46</t>
-  </si>
-  <si>
-    <t>P. A. Hanssons väg 12</t>
-  </si>
-  <si>
-    <t>Torggatan 4</t>
-  </si>
-  <si>
-    <t>Roskildevägen 39 B</t>
-  </si>
-  <si>
-    <t>Tegelgårdsg.14</t>
-  </si>
-  <si>
-    <t>Västra Rönneholmsvägen 42 A lgh 1203</t>
-  </si>
-  <si>
-    <t>Stora Kvarngatan 26</t>
-  </si>
-  <si>
-    <t>von Lingens väg 41 lgh 1402</t>
-  </si>
-  <si>
-    <t>Arkivgatan 7b</t>
-  </si>
-  <si>
-    <t>Irisv. 2</t>
-  </si>
-  <si>
-    <t>Lektorsg. 4 C</t>
   </si>
   <si>
     <t>Östervärnsg. 4</t>
@@ -3016,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A7CDD1-687A-8A42-A204-D4FD1A64062E}">
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>851</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3042,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>431</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3050,7 +2164,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>432</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3058,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>433</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3066,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>434</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3074,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>435</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3082,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>436</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3090,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3098,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3106,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>439</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3114,7 +2228,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>440</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3122,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>441</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>442</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3138,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>443</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3146,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>444</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3154,7 +2268,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>445</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3162,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>446</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3170,7 +2284,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>447</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3178,7 +2292,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>448</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3186,7 +2300,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>449</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3194,7 +2308,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>450</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3202,7 +2316,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>451</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3210,7 +2324,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>452</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3218,7 +2332,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>453</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3226,7 +2340,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3234,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>454</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3242,7 +2356,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>455</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3250,7 +2364,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>456</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3258,7 +2372,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>457</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3266,7 +2380,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>458</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3274,7 +2388,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>459</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3282,7 +2396,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>460</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3290,7 +2404,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>461</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3298,7 +2412,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3306,7 +2420,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3314,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>464</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3322,7 +2436,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3330,7 +2444,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3338,7 +2452,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3346,7 +2460,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3354,7 +2468,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3362,7 +2476,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3370,7 +2484,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3378,15 +2492,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>473</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3394,7 +2508,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>474</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3402,7 +2516,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>475</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3410,7 +2524,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>476</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3418,7 +2532,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>477</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3426,7 +2540,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3434,7 +2548,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>479</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3442,7 +2556,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>480</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3450,7 +2564,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>481</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3458,7 +2572,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>482</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3466,7 +2580,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>483</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3474,7 +2588,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>484</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -3482,7 +2596,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>485</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3490,7 +2604,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>486</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -3498,7 +2612,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>487</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3506,7 +2620,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>488</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -3514,7 +2628,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>489</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3522,7 +2636,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -3530,7 +2644,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -3538,7 +2652,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>491</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3546,7 +2660,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>492</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -3554,7 +2668,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>493</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3562,7 +2676,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>494</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3570,7 +2684,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>495</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3578,7 +2692,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>496</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -3586,7 +2700,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>497</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -3594,7 +2708,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>498</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -3602,7 +2716,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>499</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -3610,7 +2724,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>500</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -3618,7 +2732,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -3626,7 +2740,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>502</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -3634,7 +2748,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>503</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -3642,7 +2756,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>504</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -3650,7 +2764,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>505</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -3658,7 +2772,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>506</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -3666,7 +2780,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>507</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -3674,7 +2788,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>508</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -3682,7 +2796,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>509</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3690,7 +2804,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>510</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -3698,7 +2812,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>511</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -3706,7 +2820,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>512</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -3714,7 +2828,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>513</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -3722,7 +2836,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>514</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -3730,7 +2844,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>515</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -3738,7 +2852,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>516</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -3746,7 +2860,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>517</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -3754,7 +2868,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>518</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -3762,7 +2876,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>519</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -3770,7 +2884,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>520</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -3778,7 +2892,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>521</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -3786,7 +2900,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>522</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -3794,7 +2908,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>523</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -3802,7 +2916,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>524</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -3810,7 +2924,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>525</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -3818,7 +2932,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>526</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3826,7 +2940,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>527</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3834,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>528</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3842,7 +2956,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -3850,7 +2964,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>530</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3858,7 +2972,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>531</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3866,7 +2980,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>532</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3874,7 +2988,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>533</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3882,7 +2996,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>534</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3890,7 +3004,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>535</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3898,7 +3012,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>536</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3906,887 +3020,887 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>537</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>538</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>539</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>540</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>541</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>542</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>543</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>544</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>545</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>546</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>547</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>548</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>549</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>550</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>551</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>552</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>553</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>554</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>555</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>556</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>557</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>558</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>559</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>560</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>561</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>562</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>563</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>564</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>565</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>566</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>567</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>568</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>569</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>570</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>571</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>572</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>573</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>574</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>575</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>576</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>577</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>578</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>579</v>
+        <v>430</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>580</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>581</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>582</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>583</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>584</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>585</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>586</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>587</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>588</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>590</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>591</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>592</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>593</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>594</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>595</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>596</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>597</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>598</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>599</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>600</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>601</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>602</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>603</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>604</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>605</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>607</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>608</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>609</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>610</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>611</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>612</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>614</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>615</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>617</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>618</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>619</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>619</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>620</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>621</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>622</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>623</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>624</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>625</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>626</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>627</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>628</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>629</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>630</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>631</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>632</v>
+        <v>482</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>633</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>634</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>635</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>637</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>638</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>639</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>641</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>642</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>643</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -4794,7 +3908,7 @@
         <v>216</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>644</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -4802,7 +3916,7 @@
         <v>217</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>645</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -4810,7 +3924,7 @@
         <v>218</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>646</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -4818,7 +3932,7 @@
         <v>219</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>647</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -4826,7 +3940,7 @@
         <v>220</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>648</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -4834,7 +3948,7 @@
         <v>221</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>649</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -4842,7 +3956,7 @@
         <v>222</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -4850,7 +3964,7 @@
         <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>651</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -4858,7 +3972,7 @@
         <v>224</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>652</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -4866,7 +3980,7 @@
         <v>225</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>653</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -4874,7 +3988,7 @@
         <v>226</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>654</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -4882,7 +3996,7 @@
         <v>227</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>655</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -4890,7 +4004,7 @@
         <v>228</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>656</v>
+        <v>506</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -4898,7 +4012,7 @@
         <v>229</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>657</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -4906,7 +4020,7 @@
         <v>230</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>658</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -4914,7 +4028,7 @@
         <v>231</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>659</v>
+        <v>509</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -4922,7 +4036,7 @@
         <v>232</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>660</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -4930,7 +4044,7 @@
         <v>233</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>661</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -4938,7 +4052,7 @@
         <v>234</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>662</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -4946,7 +4060,7 @@
         <v>235</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>663</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -4954,7 +4068,7 @@
         <v>236</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>664</v>
+        <v>514</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -4962,7 +4076,7 @@
         <v>237</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>665</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -4970,7 +4084,7 @@
         <v>238</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>666</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -4978,7 +4092,7 @@
         <v>239</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>667</v>
+        <v>516</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -4986,7 +4100,7 @@
         <v>240</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>668</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -4994,7 +4108,7 @@
         <v>241</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>669</v>
+        <v>518</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5002,7 +4116,7 @@
         <v>242</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>670</v>
+        <v>519</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5010,7 +4124,7 @@
         <v>243</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>671</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5018,7 +4132,7 @@
         <v>244</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>672</v>
+        <v>521</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5026,7 +4140,7 @@
         <v>245</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>673</v>
+        <v>522</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5034,7 +4148,7 @@
         <v>246</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>674</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5042,7 +4156,7 @@
         <v>247</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>675</v>
+        <v>524</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5050,7 +4164,7 @@
         <v>248</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>676</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5058,7 +4172,7 @@
         <v>249</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>677</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5066,7 +4180,7 @@
         <v>250</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>678</v>
+        <v>527</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5074,7 +4188,7 @@
         <v>251</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>679</v>
+        <v>528</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5082,7 +4196,7 @@
         <v>252</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>680</v>
+        <v>529</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5090,7 +4204,7 @@
         <v>253</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>681</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5098,7 +4212,7 @@
         <v>254</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>682</v>
+        <v>531</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5106,7 +4220,7 @@
         <v>255</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>683</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5114,7 +4228,7 @@
         <v>256</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>684</v>
+        <v>533</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5122,7 +4236,7 @@
         <v>257</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>685</v>
+        <v>534</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5130,7 +4244,7 @@
         <v>258</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>686</v>
+        <v>535</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5138,7 +4252,7 @@
         <v>259</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>687</v>
+        <v>536</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5146,7 +4260,7 @@
         <v>260</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>688</v>
+        <v>537</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5154,7 +4268,7 @@
         <v>261</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>689</v>
+        <v>538</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5162,7 +4276,7 @@
         <v>262</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>690</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5170,7 +4284,7 @@
         <v>263</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>691</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5178,7 +4292,7 @@
         <v>264</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>692</v>
+        <v>541</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5186,7 +4300,7 @@
         <v>265</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>693</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5194,7 +4308,7 @@
         <v>266</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>694</v>
+        <v>543</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5202,7 +4316,7 @@
         <v>267</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>695</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5210,7 +4324,7 @@
         <v>268</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>696</v>
+        <v>545</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5218,7 +4332,7 @@
         <v>269</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>697</v>
+        <v>546</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5226,7 +4340,7 @@
         <v>270</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>698</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5234,7 +4348,7 @@
         <v>271</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>699</v>
+        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5242,7 +4356,7 @@
         <v>272</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>700</v>
+        <v>549</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5250,7 +4364,7 @@
         <v>273</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>701</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5258,7 +4372,7 @@
         <v>274</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>702</v>
+        <v>551</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5266,7 +4380,7 @@
         <v>275</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>703</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5274,7 +4388,7 @@
         <v>276</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>704</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5282,7 +4396,7 @@
         <v>277</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>705</v>
+        <v>554</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5290,1216 +4404,16 @@
         <v>278</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>706</v>
+        <v>555</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>707</v>
-      </c>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B303" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B319" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B341" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B344" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B345" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B349" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B361" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B362" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B367" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B375" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B377" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B378" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B381" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B385" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B386" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B388" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B391" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B392" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B393" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B401" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B403" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B406" s="3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B407" s="3" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B408" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B411" s="3" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B412" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B413" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B414" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B417" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B418" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B426" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B427" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
